--- a/eccrm-base/base-web/src/main/resources/import_customer.xlsx
+++ b/eccrm-base/base-web/src/main/resources/import_customer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28710" windowHeight="13200"/>
+    <workbookView windowWidth="28695" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,9 +96,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -134,44 +134,112 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -185,40 +253,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,56 +277,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -306,187 +306,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,11 +552,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,45 +578,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,6 +599,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -641,11 +626,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,152 +654,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -839,12 +839,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -856,9 +850,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1207,7 +1198,7 @@
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelRow="3"/>
@@ -1242,17 +1233,17 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="19"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="5"/>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:20">
       <c r="A2" s="7" t="s">
@@ -1279,10 +1270,10 @@
       <c r="H2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="16" t="s">
         <v>12</v>
       </c>
       <c r="K2" s="9" t="s">
@@ -1343,26 +1334,26 @@
       <c r="T3" s="11"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
